--- a/experimentos/comparar/procesarInfo/excel.xlsx
+++ b/experimentos/comparar/procesarInfo/excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -988,7 +988,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> O0 / Ciclos ASM</a:t>
+                  <a:t> O0 por Ciclos ASM</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -1644,7 +1644,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> O0 / Ciclos ASM</a:t>
+                  <a:t> O0 por Ciclos ASM</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -2292,7 +2292,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> O0 / Ciclos ASM</a:t>
+                  <a:t> O0 por Ciclos ASM</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -3046,8 +3046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q156"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P95" sqref="P95"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3919,6 +3919,10 @@
       <c r="B44" t="s">
         <v>47</v>
       </c>
+      <c r="H44">
+        <f>AVERAGE(H45:H52)</f>
+        <v>26.301202738225655</v>
+      </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
@@ -4979,6 +4983,10 @@
       <c r="B96" t="s">
         <v>47</v>
       </c>
+      <c r="H96">
+        <f>AVERAGE(H97:H104)</f>
+        <v>12.619378330628816</v>
+      </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
@@ -6035,6 +6043,10 @@
     <row r="148" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>47</v>
+      </c>
+      <c r="H148">
+        <f>AVERAGE(H149:H156)</f>
+        <v>35.458084457440378</v>
       </c>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.25">
@@ -6220,8 +6232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="AB11" sqref="AB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
